--- a/misc/boat_logs/LevitatorAirboatMaintenanceLog.xlsx
+++ b/misc/boat_logs/LevitatorAirboatMaintenanceLog.xlsx
@@ -514,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z82"/>
+  <dimension ref="A1:Z88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,6 +1517,54 @@
         <v>20</v>
       </c>
     </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>43657</v>
+      </c>
+      <c r="B83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>43658</v>
+      </c>
+      <c r="B84">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>43675</v>
+      </c>
+      <c r="B85">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>43676</v>
+      </c>
+      <c r="B86">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>43677</v>
+      </c>
+      <c r="B87">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>43683</v>
+      </c>
+      <c r="B88">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
